--- a/Vych_Labs.xlsx
+++ b/Vych_Labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bokov\source\repos\C++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D7B687-DB13-464A-97E9-A642190ABC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1259CA-52F4-4593-A26E-B5E305C59798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -608,6 +608,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Xk</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -670,6 +726,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Значения</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1656,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Vych_Labs.xlsx
+++ b/Vych_Labs.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bokov\source\repos\C++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1259CA-52F4-4593-A26E-B5E305C59798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F707C2-01CD-4FB2-813A-1AA0B1F6EBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab1" sheetId="1" r:id="rId1"/>
+    <sheet name="Курсач" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>xk</t>
   </si>
@@ -52,12 +53,18 @@
   <si>
     <t>f(x)=lagrange</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +83,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -103,10 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -905,7 +922,611 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>T(x)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Курсач!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Курсач!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.80000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0000000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Курсач!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3977400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10782799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.161438</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21470900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26755800000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31991700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37173699999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.422981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47363100000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52368099999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57314399999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62204400000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67041799999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.71831900000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.76580899999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.81296199999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85986099999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90659900000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95327600000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE9F-433C-A128-3C7277D89E15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1209456640"/>
+        <c:axId val="1207109376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1209456640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>x</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1207109376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1207109376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>T</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1209456640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1461,6 +2082,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1482,6 +2619,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B8ABF2-5058-3630-7748-647689EAC1A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F601DAB-B5A7-B5FA-18AE-995AF96F0FEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1767,7 +2945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+    <sheetView zoomScale="89" workbookViewId="0">
       <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
@@ -1985,4 +3163,216 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5900307F-488D-4E12-AE6A-993631FEC6BF}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>A2 + 0.05</f>
+        <v>0.05</v>
+      </c>
+      <c r="B3">
+        <v>5.3977400000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" ref="A4:A24" si="0">A3 + 0.05</f>
+        <v>0.1</v>
+      </c>
+      <c r="B4">
+        <v>0.10782799999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="B5">
+        <v>0.161438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="B6">
+        <v>0.21470900000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="B7">
+        <v>0.26755800000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="B8">
+        <v>0.31991700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="B9">
+        <v>0.37173699999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="B10">
+        <v>0.422981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="B11">
+        <v>0.47363100000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="B12">
+        <v>0.52368099999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="B13">
+        <v>0.57314399999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="B14">
+        <v>0.62204400000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="B15">
+        <v>0.67041799999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="B16">
+        <v>0.71831900000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="B17">
+        <v>0.76580899999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f>A17 + 0.05</f>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="B18">
+        <v>0.81296199999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>0.8500000000000002</v>
+      </c>
+      <c r="B19">
+        <v>0.85986099999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>0.90000000000000024</v>
+      </c>
+      <c r="B20">
+        <v>0.90659900000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>0.95000000000000029</v>
+      </c>
+      <c r="B21">
+        <v>0.95327600000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>